--- a/raw data.xlsx
+++ b/raw data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Junli\OneDrive\Desktop\Y2S2\Enterprise Web Application\EMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Junli\OneDrive\Desktop\New EMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E91AA4-3319-42BE-AD6F-73FD0874D391}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E582469-7B23-4C84-BAC3-6789F8B207BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{DC0E15B6-513D-400F-8E20-5C9435FA30B7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Faculty Game</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>Gaming Laptop</t>
+  </si>
+  <si>
+    <t>92a10678ede84195b6e6971494f2868a.jpg</t>
+  </si>
+  <si>
+    <t>90e2a7d5a9bc45d3b17aac3e6994986b.jpg</t>
+  </si>
+  <si>
+    <t>50906cc76e9f4533a9604528c13ff3c5.jpg</t>
   </si>
 </sst>
 </file>
@@ -426,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FBAB0A-7FA2-4CF5-BBA0-362225242AF0}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,12 +451,12 @@
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -493,8 +502,11 @@
       <c r="O3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -540,8 +552,11 @@
       <c r="O4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -587,13 +602,16 @@
       <c r="O5">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -610,7 +628,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -627,7 +645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>

--- a/raw data.xlsx
+++ b/raw data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Junli\OneDrive\Desktop\New EMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E582469-7B23-4C84-BAC3-6789F8B207BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2746F2-E96D-4BB6-B57F-47F808EF92A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{DC0E15B6-513D-400F-8E20-5C9435FA30B7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="40">
   <si>
     <t>Faculty Game</t>
   </si>
@@ -82,6 +82,69 @@
   </si>
   <si>
     <t>50906cc76e9f4533a9604528c13ff3c5.jpg</t>
+  </si>
+  <si>
+    <t>vanilla</t>
+  </si>
+  <si>
+    <t>012-4098486</t>
+  </si>
+  <si>
+    <t>vanilleecoc@gmail.com</t>
+  </si>
+  <si>
+    <t>student123</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>asdasdasd</t>
+  </si>
+  <si>
+    <t>0123456789  </t>
+  </si>
+  <si>
+    <t>asdsad@gmail.com</t>
+  </si>
+  <si>
+    <t>zxczxc</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>ABCDEF</t>
+  </si>
+  <si>
+    <t>Tan Lee Wang</t>
+  </si>
+  <si>
+    <t>leewang@gmail.com</t>
+  </si>
+  <si>
+    <t>leewang123</t>
+  </si>
+  <si>
+    <t>zxczxc213</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Teoh Lin Ken</t>
+  </si>
+  <si>
+    <t>0175987538  </t>
+  </si>
+  <si>
+    <t>ken.0623@live.com</t>
+  </si>
+  <si>
+    <t>Santino_Bianco</t>
   </si>
 </sst>
 </file>
@@ -117,10 +180,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FBAB0A-7FA2-4CF5-BBA0-362225242AF0}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,6 +728,386 @@
         <v>100</v>
       </c>
     </row>
+    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="3">
+        <v>123</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>123456</v>
+      </c>
+      <c r="K14" s="3">
+        <v>123456</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="3">
+        <v>123</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>123456</v>
+      </c>
+      <c r="K15" s="3">
+        <v>123456</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2010090</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2010090</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2010090</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>10</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2010090</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw data.xlsx
+++ b/raw data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Junli\OneDrive\Desktop\New EMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2746F2-E96D-4BB6-B57F-47F808EF92A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95CA744-0BD1-41C7-98F3-FB920DA424AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{DC0E15B6-513D-400F-8E20-5C9435FA30B7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="46">
   <si>
     <t>Faculty Game</t>
   </si>
@@ -145,16 +145,42 @@
   </si>
   <si>
     <t>Santino_Bianco</t>
+  </si>
+  <si>
+    <t>student1234</t>
+  </si>
+  <si>
+    <t>jundemoacc@gmail.com</t>
+  </si>
+  <si>
+    <t>Lim Zhen Jun</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>ABCDED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,18 +203,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,28 +533,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FBAB0A-7FA2-4CF5-BBA0-362225242AF0}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
     <col min="7" max="7" width="30.28515625" customWidth="1"/>
     <col min="8" max="8" width="40.140625" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -572,7 +605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>2</v>
       </c>
@@ -622,7 +655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>3</v>
       </c>
@@ -672,12 +705,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -694,7 +727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>2</v>
       </c>
@@ -711,7 +744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>3</v>
       </c>
@@ -728,7 +761,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -762,11 +795,14 @@
       <c r="K14" s="3">
         <v>123456</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -780,7 +816,7 @@
         <v>21</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F15" s="3">
         <v>123</v>
@@ -800,11 +836,14 @@
       <c r="K15" s="3">
         <v>123456</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -817,8 +856,8 @@
       <c r="D16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>25</v>
+      <c r="E16" s="3">
+        <v>123123123</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>28</v>
@@ -838,11 +877,14 @@
       <c r="K16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="30">
       <c r="A17" s="3">
         <v>4</v>
       </c>
@@ -876,11 +918,14 @@
       <c r="K17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="3">
         <v>5</v>
       </c>
@@ -914,11 +959,14 @@
       <c r="K18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>16</v>
+      </c>
+      <c r="R18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="3">
         <v>6</v>
       </c>
@@ -932,7 +980,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="3">
-        <v>2010090</v>
+        <v>2010091</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>28</v>
@@ -952,11 +1000,14 @@
       <c r="K19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="3">
         <v>7</v>
       </c>
@@ -970,7 +1021,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="3">
-        <v>2010090</v>
+        <v>2010092</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>28</v>
@@ -990,11 +1041,14 @@
       <c r="K20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="3">
         <v>8</v>
       </c>
@@ -1028,11 +1082,14 @@
       <c r="K21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="3">
         <v>9</v>
       </c>
@@ -1066,11 +1123,14 @@
       <c r="K22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="30">
       <c r="A23" s="3">
         <v>10</v>
       </c>
@@ -1084,7 +1144,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="3">
-        <v>2010090</v>
+        <v>2010070</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>34</v>
@@ -1104,11 +1164,58 @@
       <c r="K23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>24</v>
+      <c r="M23" t="s">
+        <v>16</v>
+      </c>
+      <c r="R23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="30">
+      <c r="A24" s="3">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24">
+        <v>124798576</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" t="s">
+        <v>16</v>
+      </c>
+      <c r="R24" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D24" r:id="rId1" xr:uid="{B365F34C-1213-45DE-AF95-4EF6202D4059}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/raw data.xlsx
+++ b/raw data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Junli\OneDrive\Desktop\New EMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95CA744-0BD1-41C7-98F3-FB920DA424AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731D05E9-B60A-435B-BDF0-309CDD8D2E86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{DC0E15B6-513D-400F-8E20-5C9435FA30B7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="54">
   <si>
     <t>Faculty Game</t>
   </si>
@@ -163,6 +163,30 @@
   </si>
   <si>
     <t>ABCDED</t>
+  </si>
+  <si>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>Flexinja</t>
+  </si>
+  <si>
+    <t>ScreaM</t>
+  </si>
+  <si>
+    <t>WarDell</t>
+  </si>
+  <si>
+    <t>omen diff</t>
+  </si>
+  <si>
+    <t>raze diff</t>
+  </si>
+  <si>
+    <t>reyna diff</t>
+  </si>
+  <si>
+    <t>jett diff</t>
   </si>
 </sst>
 </file>
@@ -533,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FBAB0A-7FA2-4CF5-BBA0-362225242AF0}">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1212,6 +1236,146 @@
         <v>1</v>
       </c>
     </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="1">
+        <v>44177.583333333336</v>
+      </c>
+      <c r="E31" s="1">
+        <v>44188.666666666664</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>25</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="1">
+        <v>44176.583333333336</v>
+      </c>
+      <c r="E32" s="1">
+        <v>44187.666666666664</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>30</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="1">
+        <v>44181.583333333336</v>
+      </c>
+      <c r="E33" s="1">
+        <v>44191.666666666664</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>30</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44183</v>
+      </c>
+      <c r="E34" s="1">
+        <v>44184</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>30</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D24" r:id="rId1" xr:uid="{B365F34C-1213-45DE-AF95-4EF6202D4059}"/>

--- a/raw data.xlsx
+++ b/raw data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Junli\OneDrive\Desktop\New EMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731D05E9-B60A-435B-BDF0-309CDD8D2E86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F2E22A-879E-4729-B5D3-6F64A1F13805}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{DC0E15B6-513D-400F-8E20-5C9435FA30B7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="58">
   <si>
     <t>Faculty Game</t>
   </si>
@@ -45,18 +45,12 @@
     <t>To improve skills of shooting game</t>
   </si>
   <si>
-    <t>Linken</t>
-  </si>
-  <si>
     <t>Omen diff</t>
   </si>
   <si>
     <t>To show the difference among the omens</t>
   </si>
   <si>
-    <t>Wen Jun</t>
-  </si>
-  <si>
     <t>Venue List</t>
   </si>
   <si>
@@ -187,6 +181,24 @@
   </si>
   <si>
     <t>jett diff</t>
+  </si>
+  <si>
+    <t>WeChat Image_20201202023124.jpg</t>
+  </si>
+  <si>
+    <t>WeChat Image_20201202023119.jpg</t>
+  </si>
+  <si>
+    <t>WeChat Image_20201202023130.jpg</t>
+  </si>
+  <si>
+    <t>WeChat Image_20201202023134.jpg</t>
+  </si>
+  <si>
+    <t>Tenz</t>
+  </si>
+  <si>
+    <t>Jett diff</t>
   </si>
 </sst>
 </file>
@@ -231,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -240,6 +252,12 @@
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -557,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FBAB0A-7FA2-4CF5-BBA0-362225242AF0}">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -574,12 +592,12 @@
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>1</v>
       </c>
@@ -613,8 +631,8 @@
       <c r="K3">
         <v>2</v>
       </c>
-      <c r="L3" t="s">
-        <v>9</v>
+      <c r="L3">
+        <v>1</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -622,14 +640,14 @@
       <c r="N3">
         <v>1</v>
       </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>2</v>
       </c>
@@ -663,31 +681,31 @@
       <c r="K4">
         <v>2</v>
       </c>
-      <c r="L4" t="s">
-        <v>6</v>
+      <c r="L4">
+        <v>1</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -713,99 +731,99 @@
       <c r="K5">
         <v>2</v>
       </c>
-      <c r="L5" t="s">
-        <v>2</v>
+      <c r="L5">
+        <v>1</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
         <v>3</v>
       </c>
-      <c r="P5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
       </c>
       <c r="E11">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:20">
       <c r="A14" s="3">
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="F14" s="3">
         <v>123</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H14" s="3" t="b">
         <v>0</v>
@@ -820,33 +838,33 @@
         <v>123456</v>
       </c>
       <c r="M14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:20">
       <c r="A15" s="3">
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="3">
         <v>123</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15" s="3" t="b">
         <v>0</v>
@@ -861,48 +879,48 @@
         <v>123456</v>
       </c>
       <c r="M15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:20">
       <c r="A16" s="3">
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E16" s="3">
         <v>123123123</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I16" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R16" t="b">
         <v>1</v>
@@ -913,37 +931,37 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="H17" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I17" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R17" t="b">
         <v>1</v>
@@ -954,37 +972,37 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E18" s="3">
         <v>2010090</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I18" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R18" t="b">
         <v>1</v>
@@ -995,37 +1013,37 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E19" s="3">
         <v>2010091</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I19" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R19" t="b">
         <v>1</v>
@@ -1036,37 +1054,37 @@
         <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E20" s="3">
         <v>2010092</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I20" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R20" t="b">
         <v>1</v>
@@ -1077,37 +1095,37 @@
         <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I21" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R21" t="b">
         <v>1</v>
@@ -1118,37 +1136,37 @@
         <v>9</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I22" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R22" t="b">
         <v>1</v>
@@ -1159,37 +1177,37 @@
         <v>10</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E23" s="3">
         <v>2010070</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I23" s="3" t="b">
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R23" t="b">
         <v>1</v>
@@ -1200,51 +1218,51 @@
         <v>11</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>124798576</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="3" t="s">
+      <c r="M24" t="s">
+        <v>14</v>
+      </c>
+      <c r="R24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="75">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
         <v>45</v>
       </c>
-      <c r="M24" t="s">
-        <v>16</v>
-      </c>
-      <c r="R24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D31" s="1">
         <v>44177.583333333336</v>
@@ -1264,22 +1282,25 @@
       <c r="I31">
         <v>25</v>
       </c>
-      <c r="J31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="J31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="75">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D32" s="1">
         <v>44176.583333333336</v>
@@ -1299,22 +1320,25 @@
       <c r="I32">
         <v>30</v>
       </c>
-      <c r="J32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="J32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="75">
       <c r="A33">
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D33" s="1">
         <v>44181.583333333336</v>
@@ -1334,22 +1358,25 @@
       <c r="I33">
         <v>30</v>
       </c>
-      <c r="J33" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33">
+      <c r="J33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:13" ht="75">
       <c r="A34">
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D34" s="1">
         <v>44183</v>
@@ -1369,11 +1396,192 @@
       <c r="I34">
         <v>30</v>
       </c>
-      <c r="J34" t="b">
-        <v>1</v>
-      </c>
-      <c r="K34">
+      <c r="J34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34">
         <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="J35" s="3"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="6">
+        <v>44177</v>
+      </c>
+      <c r="F38" s="6">
+        <v>44188</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I38" s="3">
+        <v>2</v>
+      </c>
+      <c r="J38" s="3">
+        <v>25</v>
+      </c>
+      <c r="L38" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="B39" s="3">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="6">
+        <v>44176</v>
+      </c>
+      <c r="F39" s="6">
+        <v>44187</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I39" s="3">
+        <v>2</v>
+      </c>
+      <c r="J39" s="3">
+        <v>30</v>
+      </c>
+      <c r="L39" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="B40" s="3">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="6">
+        <v>44181</v>
+      </c>
+      <c r="F40" s="6">
+        <v>44191</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I40" s="3">
+        <v>2</v>
+      </c>
+      <c r="J40" s="3">
+        <v>30</v>
+      </c>
+      <c r="L40" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="B41" s="3">
+        <v>4</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="6">
+        <v>44183</v>
+      </c>
+      <c r="F41" s="6">
+        <v>44184</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2</v>
+      </c>
+      <c r="J41" s="3">
+        <v>30</v>
+      </c>
+      <c r="L41" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="B42" s="3">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="6">
+        <v>44181</v>
+      </c>
+      <c r="F42" s="6">
+        <v>44190</v>
+      </c>
+      <c r="G42" s="7">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="I42" s="3">
+        <v>2</v>
+      </c>
+      <c r="J42" s="3">
+        <v>12</v>
+      </c>
+      <c r="L42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" s="3">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/raw data.xlsx
+++ b/raw data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6840"/>
+    <workbookView windowWidth="8100" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
     <t>Between Block A and Block B. In front of CA</t>
   </si>
   <si>
-    <t>Long Benches and Tables</t>
+    <t>Long Benches and Board</t>
   </si>
   <si>
     <t>6e3b1267eb37456f8a7d7c4fe93bc1e4.jpg</t>
@@ -1174,8 +1174,8 @@
   <sheetPr/>
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
